--- a/interface_automation/class_0625_unittest_excel_package/demo.xlsx
+++ b/interface_automation/class_0625_unittest_excel_package/demo.xlsx
@@ -1015,10 +1015,10 @@
       <c r="E2" s="0" t="n">
         <v>-6</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="0" t="n">
         <v>-6</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1042,10 +1042,10 @@
       <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1069,10 +1069,10 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1096,10 +1096,10 @@
       <c r="E5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1123,10 +1123,10 @@
       <c r="E6" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1209,10 +1209,10 @@
       <c r="E2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1236,10 +1236,10 @@
       <c r="E3" s="0" t="n">
         <v>-7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="0" t="n">
         <v>-7</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1263,10 +1263,10 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1290,10 +1290,10 @@
       <c r="E5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1317,10 +1317,10 @@
       <c r="E6" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1403,10 +1403,10 @@
       <c r="E2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1430,10 +1430,10 @@
       <c r="E3" s="0" t="n">
         <v>-12</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="0" t="n">
         <v>-12</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1457,10 +1457,10 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1484,10 +1484,10 @@
       <c r="E5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1511,10 +1511,10 @@
       <c r="E6" s="0" t="n">
         <v>-26</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="0" t="n">
         <v>-26</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1598,10 +1598,10 @@
       <c r="E2" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1625,10 +1625,10 @@
       <c r="E3" s="0" t="n">
         <v>-0.75</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="0" t="n">
         <v>-0.75</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1654,12 +1654,12 @@
           <t>∞</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>∞</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1683,10 +1683,10 @@
       <c r="E5" s="0" t="n">
         <v>1.67</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="0" t="n">
         <v>1.67</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1710,10 +1710,10 @@
       <c r="E6" s="0" t="n">
         <v>-6.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="0" t="n">
         <v>-6.5</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
